--- a/tables/conversion_table/ConversionCounts.xlsx
+++ b/tables/conversion_table/ConversionCounts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBE9B54-B1FA-4366-BF43-79CD56215BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF4D899-A115-498F-9338-25B83B6159CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>MT5</t>
+  </si>
+  <si>
+    <t>Number of SNVs moved</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,11 +210,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1881D26D-58E6-4B13-B3DA-2DFBBC0E86E2}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
@@ -585,148 +609,138 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G2" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J2" s="5">
         <v>16</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K2" s="5">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>161</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7">
-        <v>173</v>
-      </c>
-      <c r="M2" s="7">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C3" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7">
         <v>2</v>
       </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="7">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="M3" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="7">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -734,23 +748,25 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="7">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="8"/>
@@ -759,185 +775,181 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="7">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>58</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="7">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
         <v>2</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="7">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
       <c r="F9" s="7">
         <v>2</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="7">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="7">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
       <c r="L11" s="7">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -945,23 +957,25 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -972,7 +986,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="7">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -980,16 +994,18 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -997,65 +1013,63 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="7">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="7">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1063,117 +1077,144 @@
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="7">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="7">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="M18" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="7">
+        <v>132</v>
+      </c>
+      <c r="M19" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="7">
         <v>40</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>122</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="5">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5">
         <v>131</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M21" s="7">
         <v>9</v>
       </c>
     </row>
